--- a/biology/Zoologie/Chinchillidae/Chinchillidae.xlsx
+++ b/biology/Zoologie/Chinchillidae/Chinchillidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chinchillidae forment une famille de rongeurs d'Amérique du Sud dont les représentants actuels sont répartis dans trois genres : les chinchillas (genre Chinchilla) et les viscaches (genres Lagidium et Lagostomus).
 </t>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1833 par le médecin et zoologiste britannique Edward Turner Bennett (1797-1836).
-Selon les auteurs, elle admet une super-famille, celle des Chinchilloidea Bennett 1833 d'après Woods (1982) et McKenna &amp; Bell (1997) qui incluent le Pacarana (Dinomys branickii) dans cette super-famille[2] et subdivisent la famille des Chinchillidae en deux sous-familles : Chinchillinae Pocock 1922 et Lagostominae Pocock 1922[3].
+Selon les auteurs, elle admet une super-famille, celle des Chinchilloidea Bennett 1833 d'après Woods (1982) et McKenna &amp; Bell (1997) qui incluent le Pacarana (Dinomys branickii) dans cette super-famille et subdivisent la famille des Chinchillidae en deux sous-familles : Chinchillinae Pocock 1922 et Lagostominae Pocock 1922.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liste des sous-familles
-Elle comprend les sous-familles suivantes[réf. nécessaire] :
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle comprend les sous-familles suivantes[réf. nécessaire] :
 †Eoviscaccia incertae sedis
 Sous-famille Chinchillinae
 Chinchilla - les chinchillas
@@ -554,10 +573,44 @@
 Sous-famille Lagostominae
 Lagostomus - Brookes, 1828 - viscaches des plaines
 †Pliolagostomus
-†Prolagostomus
-Liste des genres
-Cette famille comprend les genres actuels suivants :
-Selon Mammal Species of the World (version 3, 2005)  (4 novembre 2014)[3], ITIS      (17 févr. 2013)[1], Catalogue of Life                                   (17 févr. 2013)[4] et NCBI  (17 févr. 2013)[5] :
+†Prolagostomus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chinchillidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chinchillidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sous-taxons</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette famille comprend les genres actuels suivants :
+Selon Mammal Species of the World (version 3, 2005)  (4 novembre 2014), ITIS      (17 févr. 2013), Catalogue of Life                                   (17 févr. 2013) et NCBI  (17 févr. 2013) :
 genre Chinchilla Bennett, 1829
 genre Lagidium Meyen, 1833
 genre Lagostomus Brookes, 1828
@@ -565,7 +618,7 @@
 			Chinchilla sp.
 			Lagidium sp.
 			Lagostomus sp.
-Selon Paleobiology Database                   (17 févr. 2013)[6] :
+Selon Paleobiology Database                   (17 févr. 2013) :
 genre Chinchilla
 † genre Eoviscaccia
 genre Lagidium
@@ -573,10 +626,44 @@
 genre Lagostomus
 † genre Prolagostomus
 † genre Scotamys
-† genre Sphodromys
-Liste des espèces
-Cette famille comprend les espèces suivantes :
-Selon Mammal Species of the World (version 3, 2005)  (4 novembre 2014)[3], UICN  (17 févr. 2013)[7] et NCBI  (17 févr. 2013)[5] :
+† genre Sphodromys</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chinchillidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chinchillidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sous-taxons</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette famille comprend les espèces suivantes :
+Selon Mammal Species of the World (version 3, 2005)  (4 novembre 2014), UICN  (17 févr. 2013) et NCBI  (17 févr. 2013) :
 genre Chinchilla
 Chinchilla chinchilla (Lichtenstein, 1829) (préféré par MSW et UICN), syn. Chinchilla brevicaudata Waterhouse, 1848 (préféré par NCBI)
 Chinchilla lanigera (Molina, 1782)
@@ -590,34 +677,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Chinchillidae</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chinchillidae</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cette famille admet plusieurs synonymes :
-Selon Mammal Species of the World (version 3, 2005)  (17 févr. 2013)[8] :
+Selon Mammal Species of the World (version 3, 2005)  (17 févr. 2013) :
 Eriomyidae Burmeister, 1854
 Lagostomidae Bonaparte, 1838
 Viacacidae Ameghino, 1904
